--- a/bsd-api-dms-order/sample_Order_File_mamasuka_v2 - 100 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_mamasuka_v2 - 100 data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achmad Amri\git\mono-dms-new\bsd-api-dms-order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78A9D5D-8EA7-4707-8D4A-7553D87B4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC3AE3B-A285-4604-9090-53F3D33167F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1132,8 +1132,8 @@
   <dimension ref="A1:BH100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
